--- a/data/evaluation/evaluation_South_Winter_Beets.xlsx
+++ b/data/evaluation/evaluation_South_Winter_Beets.xlsx
@@ -505,16 +505,16 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>2332.510693596527</v>
+        <v>2456.484707206374</v>
       </c>
       <c r="C4" t="n">
-        <v>12369935.7927833</v>
+        <v>14003303.35555099</v>
       </c>
       <c r="D4" t="n">
-        <v>3517.091951141354</v>
+        <v>3742.098790191273</v>
       </c>
       <c r="E4" t="n">
-        <v>-0.2652192141468186</v>
+        <v>-0.4322829773543442</v>
       </c>
     </row>
     <row r="5">
